--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Hbegf-Erbb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H2">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J2">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>4.20304305489444</v>
+        <v>2.179771666666667</v>
       </c>
       <c r="N2">
-        <v>4.20304305489444</v>
+        <v>6.539315</v>
       </c>
       <c r="O2">
-        <v>0.6011604688443649</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="P2">
-        <v>0.6011604688443649</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="Q2">
-        <v>26.04854266631256</v>
+        <v>16.50736069691833</v>
       </c>
       <c r="R2">
-        <v>26.04854266631256</v>
+        <v>148.566246272265</v>
       </c>
       <c r="S2">
-        <v>0.2626933872922279</v>
+        <v>0.1056640738831396</v>
       </c>
       <c r="T2">
-        <v>0.2626933872922279</v>
+        <v>0.1056640738831396</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.1975436192544</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H3">
-        <v>6.1975436192544</v>
+        <v>22.718931</v>
       </c>
       <c r="I3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J3">
-        <v>0.4369771482100512</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.78850624470292</v>
+        <v>4.237801</v>
       </c>
       <c r="N3">
-        <v>2.78850624470292</v>
+        <v>12.713403</v>
       </c>
       <c r="O3">
-        <v>0.3988395311556351</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="P3">
-        <v>0.3988395311556351</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="Q3">
-        <v>17.28188908410963</v>
+        <v>32.092769503577</v>
       </c>
       <c r="R3">
-        <v>17.28188908410963</v>
+        <v>288.834925532193</v>
       </c>
       <c r="S3">
-        <v>0.1742837609178233</v>
+        <v>0.2054267081335167</v>
       </c>
       <c r="T3">
-        <v>0.1742837609178233</v>
+        <v>0.2054267081335168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.74708419421314</v>
+        <v>7.572976999999999</v>
       </c>
       <c r="H4">
-        <v>2.74708419421314</v>
+        <v>22.718931</v>
       </c>
       <c r="I4">
-        <v>0.1936917415717327</v>
+        <v>0.4497670593913077</v>
       </c>
       <c r="J4">
-        <v>0.1936917415717327</v>
+        <v>0.4497670593913078</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.20304305489444</v>
+        <v>2.860789</v>
       </c>
       <c r="N4">
-        <v>4.20304305489444</v>
+        <v>8.582367000000001</v>
       </c>
       <c r="O4">
-        <v>0.6011604688443649</v>
+        <v>0.3083291105451987</v>
       </c>
       <c r="P4">
-        <v>0.6011604688443649</v>
+        <v>0.3083291105451986</v>
       </c>
       <c r="Q4">
-        <v>11.54611314369783</v>
+        <v>21.664689298853</v>
       </c>
       <c r="R4">
-        <v>11.54611314369783</v>
+        <v>194.982203689677</v>
       </c>
       <c r="S4">
-        <v>0.1164398181745444</v>
+        <v>0.1386762773746515</v>
       </c>
       <c r="T4">
-        <v>0.1164398181745444</v>
+        <v>0.1386762773746515</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.74708419421314</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H5">
-        <v>2.74708419421314</v>
+        <v>8.352077</v>
       </c>
       <c r="I5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J5">
-        <v>0.1936917415717327</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.78850624470292</v>
+        <v>2.179771666666667</v>
       </c>
       <c r="N5">
-        <v>2.78850624470292</v>
+        <v>6.539315</v>
       </c>
       <c r="O5">
-        <v>0.3988395311556351</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="P5">
-        <v>0.3988395311556351</v>
+        <v>0.2349306639444428</v>
       </c>
       <c r="Q5">
-        <v>7.660261430288029</v>
+        <v>6.068540267472778</v>
       </c>
       <c r="R5">
-        <v>7.660261430288029</v>
+        <v>54.616862407255</v>
       </c>
       <c r="S5">
-        <v>0.0772519233971883</v>
+        <v>0.03884489464780146</v>
       </c>
       <c r="T5">
-        <v>0.0772519233971883</v>
+        <v>0.03884489464780146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.23813584966867</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H6">
-        <v>5.23813584966867</v>
+        <v>8.352077</v>
       </c>
       <c r="I6">
-        <v>0.3693311102182161</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J6">
-        <v>0.3693311102182161</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.20304305489444</v>
+        <v>4.237801</v>
       </c>
       <c r="N6">
-        <v>4.20304305489444</v>
+        <v>12.713403</v>
       </c>
       <c r="O6">
-        <v>0.6011604688443649</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="P6">
-        <v>0.6011604688443649</v>
+        <v>0.4567402255103586</v>
       </c>
       <c r="Q6">
-        <v>22.01611050354349</v>
+        <v>11.79814675422567</v>
       </c>
       <c r="R6">
-        <v>22.01611050354349</v>
+        <v>106.183320788031</v>
       </c>
       <c r="S6">
-        <v>0.2220272633775926</v>
+        <v>0.07552026476015347</v>
       </c>
       <c r="T6">
-        <v>0.2220272633775926</v>
+        <v>0.07552026476015347</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.23813584966867</v>
+        <v>2.784025666666667</v>
       </c>
       <c r="H7">
-        <v>5.23813584966867</v>
+        <v>8.352077</v>
       </c>
       <c r="I7">
-        <v>0.3693311102182161</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="J7">
-        <v>0.3693311102182161</v>
+        <v>0.1653462089435359</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.78850624470292</v>
+        <v>2.860789</v>
       </c>
       <c r="N7">
-        <v>2.78850624470292</v>
+        <v>8.582367000000001</v>
       </c>
       <c r="O7">
-        <v>0.3988395311556351</v>
+        <v>0.3083291105451987</v>
       </c>
       <c r="P7">
-        <v>0.3988395311556351</v>
+        <v>0.3083291105451986</v>
       </c>
       <c r="Q7">
-        <v>14.60657452740332</v>
+        <v>7.964510002917668</v>
       </c>
       <c r="R7">
-        <v>14.60657452740332</v>
+        <v>71.68059002625901</v>
       </c>
       <c r="S7">
-        <v>0.1473038468406235</v>
+        <v>0.05098104953558101</v>
       </c>
       <c r="T7">
-        <v>0.1473038468406235</v>
+        <v>0.050981049535581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>6.480551000000001</v>
+      </c>
+      <c r="H8">
+        <v>19.441653</v>
+      </c>
+      <c r="I8">
+        <v>0.3848867316651562</v>
+      </c>
+      <c r="J8">
+        <v>0.3848867316651562</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>2.179771666666667</v>
+      </c>
+      <c r="N8">
+        <v>6.539315</v>
+      </c>
+      <c r="O8">
+        <v>0.2349306639444428</v>
+      </c>
+      <c r="P8">
+        <v>0.2349306639444428</v>
+      </c>
+      <c r="Q8">
+        <v>14.12612145418834</v>
+      </c>
+      <c r="R8">
+        <v>127.135093087695</v>
+      </c>
+      <c r="S8">
+        <v>0.09042169541350173</v>
+      </c>
+      <c r="T8">
+        <v>0.09042169541350174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>6.480551000000001</v>
+      </c>
+      <c r="H9">
+        <v>19.441653</v>
+      </c>
+      <c r="I9">
+        <v>0.3848867316651562</v>
+      </c>
+      <c r="J9">
+        <v>0.3848867316651562</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237801</v>
+      </c>
+      <c r="N9">
+        <v>12.713403</v>
+      </c>
+      <c r="O9">
+        <v>0.4567402255103586</v>
+      </c>
+      <c r="P9">
+        <v>0.4567402255103586</v>
+      </c>
+      <c r="Q9">
+        <v>27.46328550835101</v>
+      </c>
+      <c r="R9">
+        <v>247.169569575159</v>
+      </c>
+      <c r="S9">
+        <v>0.1757932526166883</v>
+      </c>
+      <c r="T9">
+        <v>0.1757932526166884</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>6.480551000000001</v>
+      </c>
+      <c r="H10">
+        <v>19.441653</v>
+      </c>
+      <c r="I10">
+        <v>0.3848867316651562</v>
+      </c>
+      <c r="J10">
+        <v>0.3848867316651562</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.860789</v>
+      </c>
+      <c r="N10">
+        <v>8.582367000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3083291105451987</v>
+      </c>
+      <c r="P10">
+        <v>0.3083291105451986</v>
+      </c>
+      <c r="Q10">
+        <v>18.539489014739</v>
+      </c>
+      <c r="R10">
+        <v>166.8554011326511</v>
+      </c>
+      <c r="S10">
+        <v>0.1186717836349662</v>
+      </c>
+      <c r="T10">
+        <v>0.1186717836349662</v>
       </c>
     </row>
   </sheetData>
